--- a/Ressources/SFCC/TestData/FROM_SFCC/5_makeTransaction.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/5_makeTransaction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_ramos-izquierdo_groupeonepoint_com/Documents/Bureau/Clarins/Outils/clarins_auto_uat_ihm/Ressources/SFCC/TestData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="559" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{926232CC-3874-4676-9C5F-478D3EB6AE42}"/>
+  <xr:revisionPtr revIDLastSave="716" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F818A79-D4DF-4866-BC1D-45066071D2C0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="2430" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="70">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -71,98 +71,188 @@
     <t>CHE</t>
   </si>
   <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>STEP</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>URL HS</t>
+  </si>
+  <si>
+    <t>Impossible de passer la validation de création à cause du captcha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incident car redirection sur URL FRA </t>
+  </si>
+  <si>
+    <t>${firstName}</t>
+  </si>
+  <si>
+    <t>${lastName}</t>
+  </si>
+  <si>
+    <t>${email}</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>${phoneNumber}</t>
+  </si>
+  <si>
+    <t>[Description]</t>
+  </si>
+  <si>
+    <t>@{allCheckSystems}</t>
+  </si>
+  <si>
+    <t>UC1_SFCC_Make_Transaction_FRA_UAT</t>
+  </si>
+  <si>
+    <t>UC2_SFCC_Make_Transaction_USA_UAT</t>
+  </si>
+  <si>
+    <t>UC3_SFCC_Make_Transaction_ITA_UAT</t>
+  </si>
+  <si>
+    <t>UC4_SFCC_Make_Transaction_GBR_UAT</t>
+  </si>
+  <si>
+    <t>UC5_SFCC_Make_Transaction_CHE_UAT</t>
+  </si>
+  <si>
+    <t>UC6_SFCC_Make_Transaction_BEL_UAT</t>
+  </si>
+  <si>
+    <t>UC7_SFCC_Make_Transaction_LUX_UAT</t>
+  </si>
+  <si>
+    <t>UC8_SFCC_Make_Transaction_NLD_UAT</t>
+  </si>
+  <si>
+    <t>UC9_SFCC_Make_Transaction_POL_UAT</t>
+  </si>
+  <si>
+    <t>${adress}</t>
+  </si>
+  <si>
+    <t>${postalCode}</t>
+  </si>
+  <si>
+    <t>${city}</t>
+  </si>
+  <si>
+    <t>${billingAdress}</t>
+  </si>
+  <si>
+    <t>${DPDdelivery}</t>
+  </si>
+  <si>
+    <t>${marketingConsent}</t>
+  </si>
+  <si>
+    <t>${inPostPickUp}</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Sopot</t>
+  </si>
+  <si>
+    <t>81-704</t>
+  </si>
+  <si>
+    <t>Dworcowa 7c/1.6.1</t>
+  </si>
+  <si>
+    <t>${password}</t>
+  </si>
+  <si>
+    <t>${birthDate}</t>
+  </si>
+  <si>
+    <t>${emailOptin}</t>
+  </si>
+  <si>
+    <t>${SMSOptin}</t>
+  </si>
+  <si>
     <t>${isLoyaltyMember}</t>
   </si>
   <si>
-    <t>BEL</t>
-  </si>
-  <si>
-    <t>UC1_SFCC_Create_Account_FRA_UAT</t>
-  </si>
-  <si>
-    <t>UC2_SFCC_Create_Account_USA_UAT</t>
-  </si>
-  <si>
-    <t>UC3_SFCC_Create_Account_ITA_UAT</t>
-  </si>
-  <si>
-    <t>UC4_SFCC_Create_Account_GBR_UAT</t>
-  </si>
-  <si>
-    <t>UC5_SFCC_Create_Account_CHE_UAT</t>
-  </si>
-  <si>
-    <t>UC6_SFCC_Create_Account_BEL_UAT</t>
-  </si>
-  <si>
-    <t>UC7_SFCC_Create_Account_LUX_UAT</t>
-  </si>
-  <si>
-    <t>UC8_SFCC_Create_Account_NLD_UAT</t>
-  </si>
-  <si>
-    <t>LUX</t>
-  </si>
-  <si>
-    <t>NLD</t>
-  </si>
-  <si>
-    <t>STEP</t>
-  </si>
-  <si>
-    <t>GBR</t>
-  </si>
-  <si>
-    <t>URL HS</t>
-  </si>
-  <si>
-    <t>Impossible de passer la validation de création à cause du captcha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incident car redirection sur URL FRA </t>
-  </si>
-  <si>
-    <t>UC9_SFCC_Create_Account_POL_UAT</t>
-  </si>
-  <si>
-    <t>${firstName}</t>
-  </si>
-  <si>
-    <t>${lastName}</t>
-  </si>
-  <si>
-    <t>${email}</t>
-  </si>
-  <si>
-    <t>${password}</t>
-  </si>
-  <si>
-    <t>${birthDate}</t>
-  </si>
-  <si>
-    <t>${emailOptin}</t>
-  </si>
-  <si>
-    <t>POL</t>
-  </si>
-  <si>
-    <t>${SMSOptin}</t>
-  </si>
-  <si>
-    <t>${phoneNumber}</t>
-  </si>
-  <si>
-    <t>[Description]</t>
-  </si>
-  <si>
-    <t>@{allCheckSystems}</t>
+    <t>UC10_SFCC_Make_Transaction_AUT_UAT</t>
+  </si>
+  <si>
+    <t>UC11_SFCC_Make_Transaction_PRT_UAT</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>Salzburg</t>
+  </si>
+  <si>
+    <t>Hagenauerplatz 1</t>
+  </si>
+  <si>
+    <t>1700-007</t>
+  </si>
+  <si>
+    <t>Lisboa</t>
+  </si>
+  <si>
+    <t>lisbon airport</t>
+  </si>
+  <si>
+    <t>UC12_SFCC_Make_Transaction_NZL_UAT</t>
+  </si>
+  <si>
+    <t>105 Collingwood Street</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">our gift to you popup and captcha </t>
+  </si>
+  <si>
+    <t>UC13_SFCC_Make_Transaction_ARE_UAT</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>Al Muraqqabat Ground Floor, Al Ghurair Centre, Al Rigga Road 8 St</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>0000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,12 +269,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow (Corps)"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Aptos Display"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
@@ -207,16 +291,68 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Aptos Display"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFBCBEC4"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF111111"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -284,22 +420,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -310,18 +440,82 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -393,6 +587,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -712,491 +910,892 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.19921875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="80.296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.796875" style="1"/>
+    <col min="1" max="1" width="40.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.75" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="62.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="11" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:22" s="5" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="21">
+      <c r="A2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="12"/>
+    </row>
+    <row r="3" spans="1:22" ht="21">
+      <c r="A3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="10"/>
+      <c r="T3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="21">
+      <c r="A4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="10"/>
+      <c r="T4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" s="12"/>
+    </row>
+    <row r="5" spans="1:22" ht="21">
+      <c r="A5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="10"/>
+      <c r="T5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5" s="12"/>
+    </row>
+    <row r="6" spans="1:22" ht="21">
+      <c r="A6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="10"/>
+      <c r="T6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="21">
+      <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="B7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="10"/>
+      <c r="T7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="21">
+      <c r="A8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="10"/>
+      <c r="T8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="21">
+      <c r="A9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="B9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="10"/>
+      <c r="T9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="V9" s="12"/>
+    </row>
+    <row r="10" spans="1:22" ht="21">
+      <c r="A10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="B10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="V10" s="12"/>
     </row>
-    <row r="2" spans="1:15" ht="21">
-      <c r="A2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="7"/>
+    <row r="11" spans="1:22" ht="21">
+      <c r="A11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="16">
+        <v>5020</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="V11" s="12"/>
     </row>
-    <row r="3" spans="1:15" ht="21">
-      <c r="A3" s="5" t="s">
+    <row r="12" spans="1:22" ht="21">
+      <c r="A12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="V12" s="12"/>
     </row>
-    <row r="4" spans="1:15" ht="21">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="7"/>
+    <row r="13" spans="1:22" ht="21">
+      <c r="A13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="16">
+        <v>7010</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" ht="21">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="7"/>
+    <row r="14" spans="1:22" ht="21">
+      <c r="A14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" ht="21">
-      <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>25</v>
-      </c>
+    <row r="16" spans="1:22">
+      <c r="L16" s="17"/>
     </row>
-    <row r="7" spans="1:15" ht="21">
-      <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="21">
-      <c r="A8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="21">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" ht="21">
-      <c r="A10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="13" spans="1:15" ht="17.399999999999999">
-      <c r="O13" s="12"/>
+    <row r="21" spans="19:19">
+      <c r="S21" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:L10">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="B2:K14">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="29" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="30" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+  <conditionalFormatting sqref="L2:S9 M10:S10">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11:S14">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2">
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="O3" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
+    <hyperlink ref="V3" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Ressources/SFCC/TestData/FROM_SFCC/5_makeTransaction.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/5_makeTransaction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="768" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4123FDF3-9E6B-481A-AF06-B931777E7420}"/>
+  <xr:revisionPtr revIDLastSave="791" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FD27845-B6F6-4120-900C-B23282917FB4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="85">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -283,13 +283,22 @@
   </si>
   <si>
     <t>$nombre</t>
+  </si>
+  <si>
+    <t>@{PRODUCT_LIST}</t>
+  </si>
+  <si>
+    <t>80103084:2,80094245:3</t>
+  </si>
+  <si>
+    <t>nbhnmxm9cvo@qq.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -333,22 +342,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Aptos Display"/>
@@ -381,6 +374,32 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7A7E85"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -447,9 +466,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -461,46 +480,55 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -942,848 +970,868 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="57.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.75" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="62.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.75" style="1"/>
+    <col min="1" max="1" width="52.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="58" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="57.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="11" customFormat="1" ht="19.149999999999999" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:23" s="21" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="16" customFormat="1" ht="17.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:23" s="11" customFormat="1" ht="17.25">
+      <c r="A2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13" t="s">
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="V2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="15"/>
-    </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="17.25">
-      <c r="A3" s="12" t="s">
+      <c r="W2" s="10"/>
+    </row>
+    <row r="3" spans="1:23" s="11" customFormat="1" ht="17.25">
+      <c r="A3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="15" t="s">
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="8"/>
+      <c r="U3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="V3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="W3" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="16" customFormat="1" ht="17.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:23" s="11" customFormat="1" ht="17.25">
+      <c r="A4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="S4" s="13"/>
-      <c r="T4" s="15" t="s">
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="8"/>
+      <c r="U4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="V4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="15"/>
-    </row>
-    <row r="5" spans="1:22" s="16" customFormat="1" ht="17.25">
-      <c r="A5" s="12" t="s">
+      <c r="W4" s="10"/>
+    </row>
+    <row r="5" spans="1:23" s="11" customFormat="1" ht="17.25">
+      <c r="A5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="15" t="s">
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="8"/>
+      <c r="U5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="U5" s="15" t="s">
+      <c r="V5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="15"/>
-    </row>
-    <row r="6" spans="1:22" s="16" customFormat="1" ht="17.25">
-      <c r="A6" s="12" t="s">
+      <c r="W5" s="10"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="17.25">
+      <c r="A6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="S6" s="13"/>
-      <c r="T6" s="15" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="8"/>
+      <c r="U6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="15" t="s">
+      <c r="V6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="15" t="s">
+      <c r="W6" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="16" customFormat="1" ht="17.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="17.25">
+      <c r="A7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" s="13"/>
-      <c r="T7" s="15" t="s">
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="8"/>
+      <c r="U7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="U7" s="15" t="s">
+      <c r="V7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="15" t="s">
+      <c r="W7" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="16" customFormat="1" ht="17.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="17.25">
+      <c r="A8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="S8" s="13"/>
-      <c r="T8" s="15" t="s">
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="8"/>
+      <c r="U8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="U8" s="15" t="s">
+      <c r="V8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="15" t="s">
+      <c r="W8" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="16" customFormat="1" ht="17.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="17.25">
+      <c r="A9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="15" t="s">
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="8"/>
+      <c r="U9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="15" t="s">
+      <c r="V9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="V9" s="15"/>
-    </row>
-    <row r="10" spans="1:22" s="16" customFormat="1" ht="17.25">
-      <c r="A10" s="12" t="s">
+      <c r="W9" s="10"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="17.25">
+      <c r="A10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="17" t="s">
+      <c r="B10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="N10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="O10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="13" t="s">
+      <c r="P10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="13" t="s">
+      <c r="T10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="U10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="V10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="V10" s="15"/>
-    </row>
-    <row r="11" spans="1:22" s="16" customFormat="1" ht="17.25">
-      <c r="A11" s="12" t="s">
+      <c r="W10" s="10"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="17.25">
+      <c r="A11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="18" t="s">
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="18">
+      <c r="N11" s="13">
         <v>5020</v>
       </c>
-      <c r="N11" s="18" t="s">
+      <c r="O11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="R11" s="13" t="s">
+      <c r="P11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="T11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="T11" s="15" t="s">
+      <c r="U11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="U11" s="15" t="s">
+      <c r="V11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="V11" s="15"/>
-    </row>
-    <row r="12" spans="1:22" s="16" customFormat="1" ht="17.25">
-      <c r="A12" s="12" t="s">
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="17.25">
+      <c r="A12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="17" t="s">
+      <c r="B12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="N12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="18" t="s">
+      <c r="O12" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="P12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="13" t="s">
+      <c r="P12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="S12" s="13" t="s">
+      <c r="T12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="U12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="U12" s="15" t="s">
+      <c r="V12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="V12" s="15"/>
-    </row>
-    <row r="13" spans="1:22" s="16" customFormat="1" ht="17.25">
-      <c r="A13" s="12" t="s">
+      <c r="W12" s="10"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="17.25">
+      <c r="A13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="17" t="s">
+      <c r="B13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="18">
+      <c r="N13" s="13">
         <v>7010</v>
       </c>
-      <c r="N13" s="18" t="s">
+      <c r="O13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O13" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="P13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="R13" s="13" t="s">
+      <c r="P13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="S13" s="13" t="s">
+      <c r="T13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="T13" s="15" t="s">
+      <c r="U13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="U13" s="15" t="s">
+      <c r="V13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="V13" s="15" t="s">
+      <c r="W13" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="16" customFormat="1" ht="17.25">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="17.25">
+      <c r="A14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="17" t="s">
+      <c r="B14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="N14" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="O14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="13" t="s">
+      <c r="P14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="S14" s="13" t="s">
+      <c r="T14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="T14" s="15" t="s">
+      <c r="U14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="U14" s="15" t="s">
+      <c r="V14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="V14" s="15" t="s">
+      <c r="W14" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
-      <c r="L16" s="5"/>
-    </row>
-    <row r="21" spans="19:19">
-      <c r="S21" s="6"/>
+    <row r="16" spans="1:23">
+      <c r="M16" s="5"/>
+    </row>
+    <row r="21" spans="20:20">
+      <c r="T21" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="B2:K14">
+  <conditionalFormatting sqref="B2 D2:L2 B3:L13 B14:C14 E14:L14">
     <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
@@ -1791,7 +1839,7 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
+  <conditionalFormatting sqref="D1">
     <cfRule type="cellIs" dxfId="7" priority="29" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
@@ -1799,7 +1847,7 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:S9 M10:S10">
+  <conditionalFormatting sqref="M2:T9 N10:T10">
     <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
@@ -1807,7 +1855,7 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11:S14">
+  <conditionalFormatting sqref="P11:T14">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
@@ -1815,7 +1863,7 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2">
+  <conditionalFormatting sqref="U2">
     <cfRule type="cellIs" dxfId="1" priority="19" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
@@ -1824,7 +1872,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="V3" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
+    <hyperlink ref="W3" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1835,7 +1883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F07D44-2D93-4ADF-8ECB-58CA02D4E2BF}">
   <dimension ref="B9:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:D14"/>
     </sheetView>
   </sheetViews>
@@ -1858,12 +1906,12 @@
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="C12" s="20"/>
+      <c r="C12" s="15"/>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
@@ -1877,10 +1925,10 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="47.25">
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="16" t="s">
         <v>78</v>
       </c>
     </row>

--- a/Ressources/SFCC/TestData/FROM_SFCC/5_makeTransaction.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/5_makeTransaction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="791" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FD27845-B6F6-4120-900C-B23282917FB4}"/>
+  <xr:revisionPtr revIDLastSave="801" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14657C9F-37FC-4585-8BE4-B7F712C5D480}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="74">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -249,56 +249,23 @@
     <t>contact_from_SFCC_to_STEP_for_Make_Transaction_ARE</t>
   </si>
   <si>
-    <t>open browser</t>
-  </si>
-  <si>
-    <t>create account</t>
-  </si>
-  <si>
-    <t>opick items</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>$email</t>
-  </si>
-  <si>
-    <t>uehruvjsvb@gmail.com</t>
-  </si>
-  <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>{5468,7632,8723,973}</t>
-  </si>
-  <si>
-    <t>{5468:2,7632:1,8723:7,973:9}</t>
-  </si>
-  <si>
-    <t>$birthday</t>
-  </si>
-  <si>
-    <t>$num item</t>
-  </si>
-  <si>
-    <t>$nombre</t>
-  </si>
-  <si>
     <t>@{PRODUCT_LIST}</t>
   </si>
   <si>
-    <t>80103084:2,80094245:3</t>
-  </si>
-  <si>
-    <t>nbhnmxm9cvo@qq.com</t>
+    <t>${expectedpoints}</t>
+  </si>
+  <si>
+    <t>80103084:1,80094245:1</t>
+  </si>
+  <si>
+    <t>sarah.aggour@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -391,13 +358,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF7A7E85"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFBCBEC4"/>
+      <color theme="1"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
@@ -440,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -460,6 +421,21 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,10 +500,10 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="18.75"/>
@@ -1000,11 +976,12 @@
     <col min="20" max="20" width="20.625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.75" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="57.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.75" style="1"/>
+    <col min="23" max="23" width="20.625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="57.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="21" customFormat="1" ht="19.149999999999999" customHeight="1">
+    <row r="1" spans="1:24" s="21" customFormat="1" ht="19.149999999999999" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1012,7 +989,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>21</v>
@@ -1071,11 +1048,14 @@
       <c r="V1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="W1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="X1" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="11" customFormat="1" ht="17.25">
+    <row r="2" spans="1:24" s="11" customFormat="1" ht="17.25">
       <c r="A2" s="7" t="s">
         <v>57</v>
       </c>
@@ -1123,9 +1103,9 @@
       <c r="V2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
     </row>
-    <row r="3" spans="1:23" s="11" customFormat="1" ht="17.25">
+    <row r="3" spans="1:24" s="11" customFormat="1" ht="17.25">
       <c r="A3" s="7" t="s">
         <v>58</v>
       </c>
@@ -1172,11 +1152,12 @@
       <c r="V3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="W3" s="10"/>
+      <c r="X3" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="11" customFormat="1" ht="17.25">
+    <row r="4" spans="1:24" s="11" customFormat="1" ht="17.25">
       <c r="A4" s="7" t="s">
         <v>59</v>
       </c>
@@ -1226,8 +1207,9 @@
         <v>14</v>
       </c>
       <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
     </row>
-    <row r="5" spans="1:23" s="11" customFormat="1" ht="17.25">
+    <row r="5" spans="1:24" s="11" customFormat="1" ht="17.25">
       <c r="A5" s="7" t="s">
         <v>60</v>
       </c>
@@ -1279,8 +1261,9 @@
         <v>14</v>
       </c>
       <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="1:23" s="11" customFormat="1" ht="17.25">
+    <row r="6" spans="1:24" s="11" customFormat="1" ht="17.25">
       <c r="A6" s="7" t="s">
         <v>61</v>
       </c>
@@ -1329,11 +1312,12 @@
       <c r="V6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="W6" s="10"/>
+      <c r="X6" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="11" customFormat="1" ht="17.25">
+    <row r="7" spans="1:24" s="11" customFormat="1" ht="17.25">
       <c r="A7" s="7" t="s">
         <v>62</v>
       </c>
@@ -1382,11 +1366,12 @@
       <c r="V7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="W7" s="10" t="s">
+      <c r="W7" s="10"/>
+      <c r="X7" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="11" customFormat="1" ht="17.25">
+    <row r="8" spans="1:24" s="11" customFormat="1" ht="17.25">
       <c r="A8" s="7" t="s">
         <v>63</v>
       </c>
@@ -1435,11 +1420,12 @@
       <c r="V8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="W8" s="10" t="s">
+      <c r="W8" s="10"/>
+      <c r="X8" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="11" customFormat="1" ht="17.25">
+    <row r="9" spans="1:24" s="11" customFormat="1" ht="17.25">
       <c r="A9" s="7" t="s">
         <v>64</v>
       </c>
@@ -1489,8 +1475,9 @@
         <v>14</v>
       </c>
       <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
     </row>
-    <row r="10" spans="1:23" s="11" customFormat="1" ht="17.25">
+    <row r="10" spans="1:24" s="11" customFormat="1" ht="17.25">
       <c r="A10" s="7" t="s">
         <v>65</v>
       </c>
@@ -1554,8 +1541,9 @@
         <v>14</v>
       </c>
       <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
     </row>
-    <row r="11" spans="1:23" s="11" customFormat="1" ht="17.25">
+    <row r="11" spans="1:24" s="11" customFormat="1" ht="17.25">
       <c r="A11" s="7" t="s">
         <v>66</v>
       </c>
@@ -1619,8 +1607,9 @@
         <v>14</v>
       </c>
       <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
     </row>
-    <row r="12" spans="1:23" s="11" customFormat="1" ht="17.25">
+    <row r="12" spans="1:24" s="11" customFormat="1" ht="17.25">
       <c r="A12" s="7" t="s">
         <v>67</v>
       </c>
@@ -1684,8 +1673,9 @@
         <v>14</v>
       </c>
       <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
     </row>
-    <row r="13" spans="1:23" s="11" customFormat="1" ht="17.25">
+    <row r="13" spans="1:24" s="11" customFormat="1" ht="17.25">
       <c r="A13" s="7" t="s">
         <v>68</v>
       </c>
@@ -1748,11 +1738,12 @@
       <c r="V13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="W13" s="10" t="s">
+      <c r="W13" s="10"/>
+      <c r="X13" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="11" customFormat="1" ht="17.25">
+    <row r="14" spans="1:24" s="11" customFormat="1" ht="17.25">
       <c r="A14" s="7" t="s">
         <v>69</v>
       </c>
@@ -1760,10 +1751,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>1</v>
@@ -1819,11 +1810,12 @@
       <c r="V14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="W14" s="10" t="s">
+      <c r="W14" s="10"/>
+      <c r="X14" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="M16" s="5"/>
     </row>
     <row r="21" spans="20:20">
@@ -1872,80 +1864,35 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="W3" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
+    <hyperlink ref="X3" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
+    <hyperlink ref="D14" r:id="rId2" display="mailto:sarah.aggour@gmail.com" xr:uid="{91466AC3-3DF7-490C-BBFC-FAD245605647}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F07D44-2D93-4ADF-8ECB-58CA02D4E2BF}">
-  <dimension ref="B9:H20"/>
+  <dimension ref="C11:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D14"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
+    <row r="11" spans="3:4">
+      <c r="C11" s="15"/>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="C11" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="3:4">
       <c r="C12" s="15"/>
     </row>
-    <row r="13" spans="2:4">
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="47.25">
-      <c r="C14" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8">
-      <c r="H20" t="s">
-        <v>76</v>
-      </c>
+    <row r="14" spans="3:4">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{D9EB19D9-0B6C-4692-AC07-681B7F678530}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Ressources/SFCC/TestData/FROM_SFCC/5_makeTransaction.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/5_makeTransaction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="801" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14657C9F-37FC-4585-8BE4-B7F712C5D480}"/>
+  <xr:revisionPtr revIDLastSave="837" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{938AF45C-E5C1-48B4-B6A6-6306145B7F3E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="6930" yWindow="600" windowWidth="21600" windowHeight="11295" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="84">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -258,14 +258,44 @@
     <t>80103084:1,80094245:1</t>
   </si>
   <si>
-    <t>sarah.aggour@gmail.com</t>
+    <t>contact_from_SFCC_to_STEP_for_Make_Transaction_SVK</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Make_Transaction_ROU</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>Hlavná 15</t>
+  </si>
+  <si>
+    <t>Bratislava</t>
+  </si>
+  <si>
+    <t>Strada Avram Iancu 12</t>
+  </si>
+  <si>
+    <t>Cluj-Napoca</t>
+  </si>
+  <si>
+    <t>80103084:1</t>
+  </si>
+  <si>
+    <t>testsarah@qq.com</t>
+  </si>
+  <si>
+    <t>'80103084:1,80094245:1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -297,13 +327,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF111111"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -401,7 +424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -424,27 +447,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -452,66 +460,83 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -949,7 +974,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="18.75"/>
@@ -981,849 +1006,996 @@
     <col min="25" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="21" customFormat="1" ht="19.149999999999999" customHeight="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:24" s="20" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="11" customFormat="1" ht="17.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="10"/>
+      <c r="X2" s="9"/>
     </row>
-    <row r="3" spans="1:24" s="11" customFormat="1" ht="17.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="8"/>
-      <c r="U3" s="10" t="s">
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10" t="s">
+      <c r="W3" s="9"/>
+      <c r="X3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="11" customFormat="1" ht="17.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="T4" s="8"/>
-      <c r="U4" s="10" t="s">
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="7"/>
+      <c r="U4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="V4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
     </row>
-    <row r="5" spans="1:24" s="11" customFormat="1" ht="17.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="T5" s="8"/>
-      <c r="U5" s="10" t="s">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="V5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:24" s="11" customFormat="1" ht="17.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="10" t="s">
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="V6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10" t="s">
+      <c r="W6" s="9"/>
+      <c r="X6" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="11" customFormat="1" ht="17.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="T7" s="8"/>
-      <c r="U7" s="10" t="s">
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="7"/>
+      <c r="U7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V7" s="10" t="s">
+      <c r="V7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10" t="s">
+      <c r="W7" s="9"/>
+      <c r="X7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="11" customFormat="1" ht="17.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="T8" s="8"/>
-      <c r="U8" s="10" t="s">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="7"/>
+      <c r="U8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="V8" s="10" t="s">
+      <c r="V8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10" t="s">
+      <c r="W8" s="9"/>
+      <c r="X8" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="11" customFormat="1" ht="17.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="T9" s="8"/>
-      <c r="U9" s="10" t="s">
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="7"/>
+      <c r="U9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="V9" s="10" t="s">
+      <c r="V9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
     </row>
-    <row r="10" spans="1:24" s="11" customFormat="1" ht="17.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="12" t="s">
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="8" t="s">
+      <c r="P10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="T10" s="8" t="s">
+      <c r="T10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="10" t="s">
+      <c r="U10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="V10" s="10" t="s">
+      <c r="V10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
     </row>
-    <row r="11" spans="1:24" s="11" customFormat="1" ht="17.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="13" t="s">
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="12">
         <v>5020</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="P11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="S11" s="8" t="s">
+      <c r="P11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="T11" s="8" t="s">
+      <c r="T11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="10" t="s">
+      <c r="U11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="V11" s="10" t="s">
+      <c r="V11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
     </row>
-    <row r="12" spans="1:24" s="11" customFormat="1" ht="17.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="12" t="s">
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="P12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="8" t="s">
+      <c r="P12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="T12" s="8" t="s">
+      <c r="T12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="10" t="s">
+      <c r="U12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="V12" s="10" t="s">
+      <c r="V12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
     </row>
-    <row r="13" spans="1:24" s="11" customFormat="1" ht="17.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="12" t="s">
+      <c r="B13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="12">
         <v>7010</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="S13" s="8" t="s">
+      <c r="P13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="T13" s="8" t="s">
+      <c r="T13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="10" t="s">
+      <c r="U13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="V13" s="10" t="s">
+      <c r="V13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10" t="s">
+      <c r="W13" s="9"/>
+      <c r="X13" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="11" customFormat="1" ht="17.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A14" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="24" t="s">
+      <c r="B14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="8" t="s">
+      <c r="B15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15">
+        <v>81101</v>
+      </c>
+      <c r="O15" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="T14" s="8" t="s">
+      <c r="T15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="V14" s="10" t="s">
+      <c r="U15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="V15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10" t="s">
+      <c r="W15" s="9"/>
+      <c r="X15" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
-      <c r="M16" s="5"/>
+    <row r="16" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16">
+        <v>400001</v>
+      </c>
+      <c r="O16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21" spans="20:20">
-      <c r="T21" s="6"/>
+      <c r="T21" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="B2 D2:L2 B3:L13 B14:C14 E14:L14">
+  <conditionalFormatting sqref="B2 D2:L2">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:L16">
     <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
@@ -1832,22 +2004,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="7" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="37" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="38" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:T9 N10:T10">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11:T14">
+  <conditionalFormatting sqref="P11:T16">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
@@ -1856,16 +2028,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="cellIs" dxfId="1" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="27" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="X3" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
-    <hyperlink ref="D14" r:id="rId2" display="mailto:sarah.aggour@gmail.com" xr:uid="{91466AC3-3DF7-490C-BBFC-FAD245605647}"/>
+    <hyperlink ref="D14" r:id="rId2" xr:uid="{247C3D2A-26F8-4210-9D3E-D8E3008C6F62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1874,23 +2046,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F07D44-2D93-4ADF-8ECB-58CA02D4E2BF}">
-  <dimension ref="C11:D14"/>
+  <dimension ref="B6:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="11" spans="3:4">
-      <c r="C11" s="15"/>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="12" spans="3:4">
-      <c r="C12" s="15"/>
+    <row r="11" spans="2:4">
+      <c r="C11" s="14"/>
     </row>
-    <row r="14" spans="3:4">
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+    <row r="12" spans="2:4">
+      <c r="C12" s="14"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ressources/SFCC/TestData/FROM_SFCC/5_makeTransaction.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/5_makeTransaction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="837" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{938AF45C-E5C1-48B4-B6A6-6306145B7F3E}"/>
+  <xr:revisionPtr revIDLastSave="839" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18B57473-EA5D-4831-9338-0C33374E398B}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="600" windowWidth="21600" windowHeight="11295" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>@{allCheckSystems}</t>
   </si>
   <si>
-    <t>${adress}</t>
-  </si>
-  <si>
     <t>${postalCode}</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
     <t>contact_from_SFCC_to_STEP_for_Make_Transaction_ARE</t>
   </si>
   <si>
-    <t>@{PRODUCT_LIST}</t>
-  </si>
-  <si>
     <t>${expectedpoints}</t>
   </si>
   <si>
@@ -289,6 +283,12 @@
   </si>
   <si>
     <t>'80103084:1,80094245:1</t>
+  </si>
+  <si>
+    <t>${address}</t>
+  </si>
+  <si>
+    <t>@{productList}</t>
   </si>
 </sst>
 </file>
@@ -502,14 +502,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -974,7 +974,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="18.75"/>
@@ -1013,8 +1013,8 @@
       <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>70</v>
+      <c r="C1" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>21</v>
@@ -1029,43 +1029,43 @@
         <v>20</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="18" t="s">
-        <v>41</v>
-      </c>
       <c r="M1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="P1" s="16" t="s">
         <v>23</v>
       </c>
       <c r="Q1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="S1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>31</v>
       </c>
       <c r="U1" s="16" t="s">
         <v>6</v>
@@ -1074,7 +1074,7 @@
         <v>25</v>
       </c>
       <c r="W1" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="X1" s="19" t="s">
         <v>24</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="2" spans="1:24" s="10" customFormat="1" ht="17.25">
       <c r="A2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="3" spans="1:24" s="10" customFormat="1" ht="17.25">
       <c r="A3" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="4" spans="1:24" s="10" customFormat="1" ht="17.25">
       <c r="A4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>3</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="5" spans="1:24" s="10" customFormat="1" ht="17.25">
       <c r="A5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>3</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="6" spans="1:24" s="10" customFormat="1" ht="17.25">
       <c r="A6" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>3</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="7" spans="1:24" s="10" customFormat="1" ht="17.25">
       <c r="A7" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>3</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="8" spans="1:24" s="10" customFormat="1" ht="17.25">
       <c r="A8" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>3</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="9" spans="1:24" s="10" customFormat="1" ht="17.25">
       <c r="A9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>3</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="10" spans="1:24" s="10" customFormat="1" ht="17.25">
       <c r="A10" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>3</v>
@@ -1536,13 +1536,13 @@
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P10" s="8" t="s">
         <v>1</v>
@@ -1554,10 +1554,10 @@
         <v>4</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U10" s="9" t="s">
         <v>22</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="11" spans="1:24" s="10" customFormat="1" ht="17.25">
       <c r="A11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>3</v>
@@ -1602,13 +1602,13 @@
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N11" s="12">
         <v>5020</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P11" s="8" t="s">
         <v>1</v>
@@ -1620,13 +1620,13 @@
         <v>4</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V11" s="9" t="s">
         <v>14</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="12" spans="1:24" s="10" customFormat="1" ht="17.25">
       <c r="A12" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>3</v>
@@ -1668,14 +1668,14 @@
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="12" t="s">
-        <v>47</v>
-      </c>
       <c r="P12" s="8" t="s">
         <v>1</v>
       </c>
@@ -1686,13 +1686,13 @@
         <v>4</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V12" s="9" t="s">
         <v>14</v>
@@ -1702,13 +1702,13 @@
     </row>
     <row r="13" spans="1:24" s="10" customFormat="1" ht="17.25">
       <c r="A13" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>72</v>
+      <c r="C13" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>1</v>
@@ -1736,52 +1736,52 @@
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N13" s="12">
         <v>7010</v>
       </c>
       <c r="O13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="V13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="W13" s="9"/>
       <c r="X13" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:24" s="10" customFormat="1" ht="17.25">
       <c r="A14" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>82</v>
+      <c r="C14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>1</v>
@@ -1808,14 +1808,14 @@
         <v>4</v>
       </c>
       <c r="M14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="N14" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="P14" s="8" t="s">
         <v>1</v>
       </c>
@@ -1826,31 +1826,31 @@
         <v>4</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="W14" s="9"/>
       <c r="X14" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="10" customFormat="1" ht="17.25">
       <c r="A15" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>81</v>
+      <c r="C15" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>1</v>
@@ -1878,13 +1878,13 @@
       </c>
       <c r="L15" s="7"/>
       <c r="M15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N15">
         <v>81101</v>
       </c>
       <c r="O15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P15" s="8" t="s">
         <v>1</v>
@@ -1896,31 +1896,31 @@
         <v>4</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V15" s="9" t="s">
         <v>14</v>
       </c>
       <c r="W15" s="9"/>
       <c r="X15" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:24" s="10" customFormat="1" ht="17.25">
       <c r="A16" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>81</v>
+      <c r="C16" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>1</v>
@@ -1948,13 +1948,13 @@
       </c>
       <c r="L16" s="7"/>
       <c r="M16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N16">
         <v>400001</v>
       </c>
       <c r="O16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P16" s="8" t="s">
         <v>1</v>
@@ -1966,20 +1966,20 @@
         <v>4</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V16" s="9" t="s">
         <v>14</v>
       </c>
       <c r="W16" s="9"/>
       <c r="X16" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="20:20">
@@ -2056,7 +2056,7 @@
   <sheetData>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:4">

--- a/Ressources/SFCC/TestData/FROM_SFCC/5_makeTransaction.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/5_makeTransaction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="839" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18B57473-EA5D-4831-9338-0C33374E398B}"/>
+  <xr:revisionPtr revIDLastSave="848" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43BC572A-57CC-4594-A713-E1CAAE35E141}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="87">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -282,13 +282,22 @@
     <t>testsarah@qq.com</t>
   </si>
   <si>
-    <t>'80103084:1,80094245:1</t>
-  </si>
-  <si>
     <t>${address}</t>
   </si>
   <si>
     <t>@{productList}</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Make_Transaction_MYS</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
+    <t>No. 25, Jalan SS15/4B</t>
+  </si>
+  <si>
+    <t>Subang Jaya</t>
   </si>
 </sst>
 </file>
@@ -452,7 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -483,10 +492,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,7 +521,147 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -973,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="18.75"/>
@@ -1006,86 +1151,89 @@
     <col min="25" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="20" customFormat="1" ht="19.149999999999999" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:24" s="18" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="N1" s="16" t="s">
+      <c r="M1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="10" customFormat="1" ht="17.25">
       <c r="A2" s="6" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>1</v>
@@ -1099,886 +1247,51 @@
       <c r="G2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="J2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2">
+        <v>47500</v>
+      </c>
+      <c r="O2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="Q2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="7"/>
+      <c r="R2" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="S2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7" t="s">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="9"/>
-    </row>
-    <row r="3" spans="1:24" s="10" customFormat="1" ht="17.25">
-      <c r="A3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="10" customFormat="1" ht="17.25">
-      <c r="A4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-    </row>
-    <row r="5" spans="1:24" s="10" customFormat="1" ht="17.25">
-      <c r="A5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="T5" s="7"/>
-      <c r="U5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-    </row>
-    <row r="6" spans="1:24" s="10" customFormat="1" ht="17.25">
-      <c r="A6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="T6" s="7"/>
-      <c r="U6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="10" customFormat="1" ht="17.25">
-      <c r="A7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="T7" s="7"/>
-      <c r="U7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="10" customFormat="1" ht="17.25">
-      <c r="A8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="T8" s="7"/>
-      <c r="U8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="10" customFormat="1" ht="17.25">
-      <c r="A9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="T9" s="7"/>
-      <c r="U9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="V9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-    </row>
-    <row r="10" spans="1:24" s="10" customFormat="1" ht="17.25">
-      <c r="A10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-    </row>
-    <row r="11" spans="1:24" s="10" customFormat="1" ht="17.25">
-      <c r="A11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="12">
-        <v>5020</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="V11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-    </row>
-    <row r="12" spans="1:24" s="10" customFormat="1" ht="17.25">
-      <c r="A12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="V12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-    </row>
-    <row r="13" spans="1:24" s="10" customFormat="1" ht="17.25">
-      <c r="A13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N13" s="12">
-        <v>7010</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="V13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="10" customFormat="1" ht="17.25">
-      <c r="A14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="V14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="10" customFormat="1" ht="17.25">
-      <c r="A15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="7"/>
-      <c r="M15" t="s">
-        <v>75</v>
-      </c>
-      <c r="N15">
-        <v>81101</v>
-      </c>
-      <c r="O15" t="s">
-        <v>76</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U15" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="V15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" s="10" customFormat="1" ht="17.25">
-      <c r="A16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L16" s="7"/>
-      <c r="M16" t="s">
-        <v>77</v>
-      </c>
-      <c r="N16">
-        <v>400001</v>
-      </c>
-      <c r="O16" t="s">
-        <v>78</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="S16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U16" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="V16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9" t="s">
+      <c r="W2" s="9"/>
+      <c r="X2" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1987,89 +1300,1009 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="B2 D2:L2">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+  <conditionalFormatting sqref="D1">
+    <cfRule type="cellIs" dxfId="21" priority="41" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="42" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:L16">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+  <conditionalFormatting sqref="B2:L2">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="7" priority="37" operator="equal">
+  <conditionalFormatting sqref="P2:T2">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:T9 N10:T10">
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P11:T16">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2">
-    <cfRule type="cellIs" dxfId="1" priority="27" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="X3" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
-    <hyperlink ref="D14" r:id="rId2" xr:uid="{247C3D2A-26F8-4210-9D3E-D8E3008C6F62}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F07D44-2D93-4ADF-8ECB-58CA02D4E2BF}">
-  <dimension ref="B6:D14"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="53.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="58" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="57.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="2:4">
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
+    <row r="1" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="9"/>
     </row>
-    <row r="11" spans="2:4">
-      <c r="C11" s="14"/>
+    <row r="2" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="C12" s="14"/>
+    <row r="3" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
     </row>
-    <row r="14" spans="2:4">
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+    <row r="4" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="7"/>
+      <c r="U4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+    </row>
+    <row r="5" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="7"/>
+      <c r="U7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="7"/>
+      <c r="U8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+    </row>
+    <row r="9" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+    </row>
+    <row r="10" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="12">
+        <v>5020</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+    </row>
+    <row r="12" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="12">
+        <v>7010</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14">
+        <v>81101</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15">
+        <v>400001</v>
+      </c>
+      <c r="O15" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1 D1:L1">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:L15">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:T8 N9:T9">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P10:T15">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="X2" r:id="rId1" display="https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
+    <hyperlink ref="D13" r:id="rId2" xr:uid="{247C3D2A-26F8-4210-9D3E-D8E3008C6F62}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Ressources/SFCC/TestData/FROM_SFCC/5_makeTransaction.xlsx
+++ b/Ressources/SFCC/TestData/FROM_SFCC/5_makeTransaction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Bureau/clarins_auto_uat_ihm/Ressources/SFCC/TestData/FROM_SFCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="848" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43BC572A-57CC-4594-A713-E1CAAE35E141}"/>
+  <xr:revisionPtr revIDLastSave="928" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59FDE071-2109-42FA-B9F9-2CDEF163D297}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="3060" yWindow="1500" windowWidth="21600" windowHeight="11295" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="100">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -291,20 +291,59 @@
     <t>contact_from_SFCC_to_STEP_for_Make_Transaction_MYS</t>
   </si>
   <si>
+    <t>No. 25, Jalan SS15/4B</t>
+  </si>
+  <si>
+    <t>Subang Jaya</t>
+  </si>
+  <si>
+    <t>80103084:2</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>クセイブランク</t>
+  </si>
+  <si>
     <t>MYS</t>
   </si>
   <si>
-    <t>No. 25, Jalan SS15/4B</t>
-  </si>
-  <si>
-    <t>Subang Jaya</t>
+    <t>No. 12, Jalan Damai 3</t>
+  </si>
+  <si>
+    <t>Kajang</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Make_Transaction_JPN</t>
+  </si>
+  <si>
+    <t>contact_from_SFCC_to_STEP_for_Make_Transaction_TWN</t>
+  </si>
+  <si>
+    <t>TWN</t>
+  </si>
+  <si>
+    <t>100 台北市中正區忠孝東路一段 45 號 7 樓</t>
+  </si>
+  <si>
+    <t>台北市</t>
+  </si>
+  <si>
+    <t>Eric_dymkmaq_41@qq.com</t>
+  </si>
+  <si>
+    <t>Sdrxldwyn_leukuhq_43@qq.com</t>
+  </si>
+  <si>
+    <t>DUBAI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -394,6 +433,18 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -461,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -516,32 +567,17 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1116,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="18.75"/>
@@ -1225,12 +1261,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="10" customFormat="1" ht="17.25">
+    <row r="2" spans="1:24" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>79</v>
@@ -1260,14 +1296,14 @@
         <v>4</v>
       </c>
       <c r="L2" s="7"/>
-      <c r="M2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N2">
-        <v>47500</v>
-      </c>
-      <c r="O2" t="s">
-        <v>86</v>
+      <c r="M2" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="22">
+        <v>100</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>1</v>
@@ -1285,7 +1321,7 @@
         <v>32</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>14</v>
@@ -1295,32 +1331,258 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="20:20">
-      <c r="T21" s="5"/>
+    <row r="3" spans="1:24" s="10" customFormat="1" ht="17.25">
+      <c r="A3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+    </row>
+    <row r="4" spans="1:24" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4">
+        <v>43000</v>
+      </c>
+      <c r="O4" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="10" customFormat="1">
+      <c r="A5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="20:20">
+      <c r="T20" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="21" priority="41" operator="equal">
+  <conditionalFormatting sqref="B2:C2 E2:L2">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:L2">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="B3:L3 B4:C4 E4:L4">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:T2">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="B5:L5">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D2">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:T5">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1331,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F07D44-2D93-4ADF-8ECB-58CA02D4E2BF}">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2123,7 +2385,7 @@
         <v>71</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>79</v>
@@ -2193,7 +2455,7 @@
         <v>72</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>79</v>
@@ -2258,44 +2520,222 @@
         <v>51</v>
       </c>
     </row>
+    <row r="16" spans="1:24" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16">
+        <v>43000</v>
+      </c>
+      <c r="O16" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17">
+        <v>47501</v>
+      </c>
+      <c r="O17" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1 D1:L1">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:L15">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+  <conditionalFormatting sqref="B17:E17 H17:L17">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:L16">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:L18">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:T8 N9:T9">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="19" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="20" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P10:T15">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+  <conditionalFormatting sqref="P10:T18">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
